--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8965942213632373</v>
+        <v>1.942737351341484E-07</v>
       </c>
       <c r="E3">
-        <v>0.8965942213632373</v>
+        <v>1.942737351341484E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.497495314411207E-09</v>
+        <v>0.999300195218732</v>
       </c>
       <c r="E4">
-        <v>7.497495314411207E-09</v>
+        <v>0.999300195218732</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9.009912031670439E-06</v>
+        <v>0.1444795114167273</v>
       </c>
       <c r="E5">
-        <v>9.009912031670439E-06</v>
+        <v>0.1444795114167273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.920604988354984E-23</v>
+        <v>1.964375447706767E-31</v>
       </c>
       <c r="E6">
-        <v>6.920604988354984E-23</v>
+        <v>1.964375447706767E-31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999625507473</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.744925269888455E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999551</v>
+        <v>0.9999999999999474</v>
       </c>
       <c r="E8">
-        <v>4.485301019485632E-14</v>
+        <v>5.262457136723242E-14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999939781967</v>
+        <v>0.9999999999999278</v>
       </c>
       <c r="E9">
-        <v>6.02180327824442E-09</v>
+        <v>7.216449660063518E-14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>12.05101108551025</v>
+        <v>13.18059539794922</v>
       </c>
       <c r="G11">
         <v>0.8</v>
